--- a/ClientExcel/GameHot/$Localization.xlsx
+++ b/ClientExcel/GameHot/$Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>本地化配置表</t>
   </si>
@@ -59,6 +59,9 @@
     <t>MainMenu.NewGame</t>
   </si>
   <si>
+    <t>主菜单</t>
+  </si>
+  <si>
     <t>新游戏</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t>Dialog.Confirm</t>
   </si>
   <si>
+    <t>对话框</t>
+  </si>
+  <si>
     <t>确定</t>
   </si>
   <si>
@@ -150,6 +156,9 @@
   </si>
   <si>
     <t>Language.Title</t>
+  </si>
+  <si>
+    <t>多语言</t>
   </si>
   <si>
     <t>选择你的语言</t>
@@ -1178,12 +1187,15 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.25" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="5" width="27.25" style="1" customWidth="1"/>
+    <col min="1" max="2" width="27.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="84.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.25" style="2" customWidth="1"/>
     <col min="7" max="16383" width="27.25" style="1" customWidth="1"/>
     <col min="16384" max="16384" width="27.25" style="1"/>
@@ -1244,255 +1256,295 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E24" s="3"/>
     </row>
